--- a/phenology/sampling_window_suggestions.xlsx
+++ b/phenology/sampling_window_suggestions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanfolk/Documents/GitHub/neon/phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20BB707-8293-D94A-9E76-61CE6C095ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246E4BD-DA48-5946-A525-6EC064045B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="500" windowWidth="27240" windowHeight="15940" xr2:uid="{8D601877-382F-134A-A1EA-EBDB02C74DA7}"/>
   </bookViews>
@@ -359,7 +359,7 @@
     <t>NO GRAPH. Only Acacia koa</t>
   </si>
   <si>
-    <t>Approx Mar 1</t>
+    <t>Approx Apr 1</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
